--- a/artfynd/A 53198-2020.xlsx
+++ b/artfynd/A 53198-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,312 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112551629</v>
+      </c>
+      <c r="B3" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Syd Åskaksdammen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>409494</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6717338</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112551631</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Sydväst Åskaksdammen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>409335</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6717479</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112551642</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77402</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Sydväst Åskaksdammen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>409388</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6717259</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
